--- a/BDP2.xlsx
+++ b/BDP2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\en-A013-20\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vivaldi\Завантаження\Bussiness data processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9A1831-7746-45FB-A8AC-B904AB276457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4D3D74-6DAC-4BF8-821C-F8529B43DF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FB55F4A-ADCD-4FB3-95A5-9868C5662823}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5FB55F4A-ADCD-4FB3-95A5-9868C5662823}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>Income</t>
   </si>
@@ -154,9 +156,6 @@
     <t>Appliances&amp;Furniture</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
     <t>Savings</t>
   </si>
   <si>
@@ -198,6 +197,15 @@
   <si>
     <t>Studies</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
 </sst>
 </file>
 
@@ -205,11 +213,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="dd\-mmmm"/>
-    <numFmt numFmtId="169" formatCode="d\ mmmm"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="dd\-mmmm"/>
+    <numFmt numFmtId="166" formatCode="d\ mmmm"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +258,15 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -363,7 +380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -382,21 +399,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -462,116 +464,206 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="16" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -580,28 +672,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -610,40 +681,157 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -651,7 +839,130 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="65">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -676,6 +987,1436 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFB7FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFB7FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFB7FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d\ mmmm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="dd\-mmmm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF6699"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -706,7 +2447,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -834,7 +2575,7 @@
             <c:numRef>
               <c:f>'1'!$B$5:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* "-"??\ [$zł-415]_-;_-@_-</c:formatCode>
+                <c:formatCode>_-* #\ ##0.00\ [$zł-415]_-;\-* #\ ##0.00\ [$zł-415]_-;_-* "-"??\ [$zł-415]_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>5700</c:v>
@@ -899,13 +2640,13 @@
             <c:numRef>
               <c:f>'1'!$C$5:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* "-"??\ [$zł-415]_-;_-@_-</c:formatCode>
+                <c:formatCode>_-* #\ ##0.00\ [$zł-415]_-;\-* #\ ##0.00\ [$zł-415]_-;_-* "-"??\ [$zł-415]_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5655.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4810</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1000</c:v>
@@ -1018,7 +2759,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #\ ##0.00\ [$zł-415]_-;\-* #\ ##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1149,7 +2890,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1507,7 +3248,7 @@
             <c:numRef>
               <c:f>'1'!$B$15:$B$18</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* "-"??\ [$zł-415]_-;_-@_-</c:formatCode>
+                <c:formatCode>_-* #\ ##0.00\ [$zł-415]_-;\-* #\ ##0.00\ [$zł-415]_-;_-* "-"??\ [$zł-415]_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2500</c:v>
@@ -1597,7 +3338,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2203,7 +3944,7 @@
             <c:numRef>
               <c:f>'1'!$G$15:$G$23</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* "-"??\ [$zł-415]_-;_-@_-</c:formatCode>
+                <c:formatCode>_-* #\ ##0.00\ [$zł-415]_-;\-* #\ ##0.00\ [$zł-415]_-;_-* "-"??\ [$zł-415]_-;_-@_-</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1740</c:v>
@@ -2308,7 +4049,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2802,7 +4543,7 @@
             <c:numRef>
               <c:f>'1'!$M$15:$M$21</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* "-"??\ [$zł-415]_-;_-@_-</c:formatCode>
+                <c:formatCode>_-* #\ ##0.00\ [$zł-415]_-;\-* #\ ##0.00\ [$zł-415]_-;_-* "-"??\ [$zł-415]_-;_-@_-</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1500</c:v>
@@ -2901,7 +4642,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3252,7 +4993,7 @@
             <c:numRef>
               <c:f>'1'!$R$15:$R$18</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* "-"??\ [$zł-415]_-;_-@_-</c:formatCode>
+                <c:formatCode>_-* #\ ##0.00\ [$zł-415]_-;\-* #\ ##0.00\ [$zł-415]_-;_-* "-"??\ [$zł-415]_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>33</c:v>
@@ -3342,7 +5083,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3749,7 +5490,7 @@
             <c:numRef>
               <c:f>'1'!$V$15:$V$19</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* "-"??\ [$zł-415]_-;_-@_-</c:formatCode>
+                <c:formatCode>_-* #\ ##0.00\ [$zł-415]_-;\-* #\ ##0.00\ [$zł-415]_-;_-* "-"??\ [$zł-415]_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>350</c:v>
@@ -7092,13 +8833,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>500063</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7298,31 +9039,98 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3576CECD-D08B-4FD8-8B17-CB25FFF439A3}" name="Income_1" displayName="Income_1" ref="A14:D25" totalsRowCount="1" headerRowDxfId="61" headerRowBorderDxfId="63" tableBorderDxfId="64" totalsRowBorderDxfId="62">
+  <autoFilter ref="A14:D24" xr:uid="{3576CECD-D08B-4FD8-8B17-CB25FFF439A3}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{DB45FF9F-9F9F-4141-A23F-ED6FED6731D7}" name="Source" totalsRowLabel="Total" dataDxfId="60" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{7B6A5A3D-DBAC-4EA4-AF13-529A5F83A8D4}" name="Planned" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{7AF58220-6963-4A2D-A680-A02A8B988F91}" name="Actual" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{60C839A8-B5C2-4C69-9E8C-BB70A082DB27}" name="Left" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{38B116CE-31B6-45DF-A5E5-6F83DAC4414E}" name="Expences_1" displayName="Expences_1" ref="F14:I25" totalsRowCount="1" headerRowDxfId="53" headerRowBorderDxfId="55" tableBorderDxfId="56" totalsRowBorderDxfId="54">
+  <autoFilter ref="F14:I24" xr:uid="{38B116CE-31B6-45DF-A5E5-6F83DAC4414E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{ECA25263-6A33-47CD-9CED-5DB1B56650A1}" name="Category" totalsRowLabel="Total" dataDxfId="52" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{3CF5C307-0DA7-4414-8352-DF3F67A52DDF}" name="Planned" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{F72178FB-352A-4464-BFA0-6DFF1A7F664C}" name="Actual" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{B2B3DDF9-6879-4316-BEF8-3C498D36A566}" name="Left" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{ECC700B2-B76E-4491-9483-1D89F694F63F}" name="Bills_1" displayName="Bills_1" ref="K14:N25" totalsRowCount="1" headerRowDxfId="45" headerRowBorderDxfId="47" tableBorderDxfId="48" totalsRowBorderDxfId="46">
+  <autoFilter ref="K14:N24" xr:uid="{ECC700B2-B76E-4491-9483-1D89F694F63F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8990D9C7-F554-4B4C-A192-8252002EF453}" name="Bill" totalsRowLabel="Total" dataDxfId="44" totalsRowDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{616B2417-E1FF-4FA0-8922-F272C1DAB2F2}" name="Due" dataDxfId="43" totalsRowDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{B0CCB303-5DA5-4F37-A315-B9DB73AEFF2F}" name="Planned" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="38" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{70102AF6-5773-4EE9-9657-E64BCFE375C3}" name="Actual" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="37" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9FF32752-EBDA-4F8F-82CD-629DF8D15E9C}" name="Subscriptions_1" displayName="Subscriptions_1" ref="P14:S25" totalsRowCount="1" headerRowDxfId="33" headerRowBorderDxfId="35" tableBorderDxfId="36" totalsRowBorderDxfId="34">
+  <autoFilter ref="P14:S24" xr:uid="{9FF32752-EBDA-4F8F-82CD-629DF8D15E9C}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{3C02E8F0-13E9-424E-B7AF-D5724C34666B}" name="Subscription" totalsRowLabel="Total" dataDxfId="32" totalsRowDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{B70303BB-BF1D-4BE7-BFC5-2EAA1211CDC0}" name="Due" dataDxfId="31" totalsRowDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{8357E25C-717E-404A-A3DD-008AF29E6973}" name="Planned" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{7D6BB139-278B-49C2-82FC-0965B46301A3}" name="Actual" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{44E50FE7-83F4-4B53-A84C-5F88036A5021}" name="Savings_1" displayName="Savings_1" ref="U14:X25" totalsRowCount="1" headerRowDxfId="25" headerRowBorderDxfId="27" tableBorderDxfId="28" totalsRowBorderDxfId="26">
+  <autoFilter ref="U14:X24" xr:uid="{44E50FE7-83F4-4B53-A84C-5F88036A5021}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{CEDE4352-31FD-44C8-8C09-0DE9DDB90690}" name="Aim" totalsRowLabel="Total" dataDxfId="24" totalsRowDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{35773036-32C5-460E-B459-D0F4F4C7D93D}" name="Planned" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{7A5FAE9F-793E-45AA-B99C-7D83BDAD79B4}" name="Actual" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{3514E309-5672-4451-B01F-041F61E45C7A}" name="Left" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="14">
+      <calculatedColumnFormula>Savings_1[[#This Row],[Planned]]-Savings_1[[#This Row],[Actual]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7360,7 +9168,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7466,7 +9274,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7608,7 +9416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7616,804 +9424,881 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E05D01-09F3-473C-BD5D-530D7D865754}">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" customWidth="1"/>
-    <col min="21" max="21" width="23.28515625" customWidth="1"/>
-    <col min="22" max="22" width="16.42578125" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.88671875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" customWidth="1"/>
+    <col min="19" max="19" width="21.109375" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" customWidth="1"/>
+    <col min="21" max="21" width="23.33203125" customWidth="1"/>
+    <col min="22" max="22" width="16.44140625" customWidth="1"/>
+    <col min="23" max="23" width="12.88671875" customWidth="1"/>
+    <col min="24" max="24" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="str" cm="1">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="str" cm="1">
         <f t="array" aca="1" ref="A2" ca="1">_xlfn.TEXTAFTER(CELL("filename", A1), "]")</f>
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>39</v>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="25">
-        <f>B25</f>
+      <c r="B5" s="8" cm="1">
+        <f t="array" aca="1" ref="B5" ca="1">INDIRECT($A5&amp;"_"&amp;$A$2&amp;"[[#Totals];["&amp;B$4&amp;"]]")</f>
         <v>5700</v>
       </c>
-      <c r="C5" s="25" t="e">
-        <f>C25</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D5" s="25" t="e">
-        <f>C5-B5</f>
-        <v>#REF!</v>
+      <c r="C5" s="8" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT($A5&amp;"_"&amp;$A$2&amp;"[[#Totals];["&amp;C$4&amp;"]]")</f>
+        <v>5655.5</v>
+      </c>
+      <c r="D5" s="8">
+        <f ca="1">C5-B5</f>
+        <v>-44.5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="25">
-        <f>G25</f>
+      <c r="B6" s="8" cm="1">
+        <f t="array" aca="1" ref="B6" ca="1">INDIRECT($A6&amp;"_"&amp;$A$2&amp;"[[#Totals];["&amp;B$4&amp;"]]")</f>
         <v>3800</v>
       </c>
-      <c r="C6" s="25" t="e">
-        <f>H25</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D6" s="25" t="e">
-        <f t="shared" ref="D6:D7" si="0">B6-C6</f>
-        <v>#REF!</v>
+      <c r="C6" s="8" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT($A6&amp;"_"&amp;$A$2&amp;"[[#Totals];["&amp;C$4&amp;"]]")</f>
+        <v>4810</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" ref="D6:D7" ca="1" si="0">B6-C6</f>
+        <v>-1010</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="8" cm="1">
+        <f t="array" aca="1" ref="B7" ca="1">INDIRECT($A7&amp;"_"&amp;$A$2&amp;"[[#Totals];["&amp;B$4&amp;"]]")</f>
+        <v>1900</v>
+      </c>
+      <c r="C7" s="8" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT($A7&amp;"_"&amp;$A$2&amp;"[[#Totals];["&amp;C$4&amp;"]]")</f>
+        <v>1000</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="8">
+        <f ca="1">B5-B6-B7</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
+        <f ca="1">C5-C6-C7</f>
+        <v>-154.5</v>
+      </c>
+      <c r="D9" s="8">
+        <f ca="1">D5+D6+D7</f>
+        <v>-154.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="K13" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="P13" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="U13" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="V13" s="85"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="86"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="S14" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="U14" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="25">
-        <f>V25</f>
-        <v>1900</v>
-      </c>
-      <c r="C7" s="25">
-        <f>W25</f>
-        <v>1000</v>
-      </c>
-      <c r="D7" s="25">
-        <f t="shared" si="0"/>
-        <v>900</v>
+      <c r="V14" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="W14" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="X14" s="82" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="25">
-        <f>B5-B6-B7</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="25" t="e">
-        <f>C5-C6-C7</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D9" s="25" t="e">
-        <f>D5+D6+D7</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48"/>
-      <c r="K13" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="P13" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="U13" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="U14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V14" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="W14" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="12">
         <v>2500</v>
       </c>
-      <c r="C15" s="29" t="e">
-        <f>_xlfn.XLOOKUP(A15,[1]!Incomes1[Category],[1]!Incomes1[Total],"",0,1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D15" s="29" t="e">
-        <f>C15-B15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="14" t="s">
+      <c r="C15" s="12">
+        <f ca="1">_xlfn.XLOOKUP(A15,[1]!Incomes1[Category],[1]!Incomes1[Total],"",0,1)</f>
+        <v>250</v>
+      </c>
+      <c r="D15" s="37">
+        <f ca="1">C15-B15</f>
+        <v>-2250</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="10">
         <v>1740</v>
       </c>
-      <c r="H15" s="28" t="e">
-        <f>ABS(_xlfn.XLOOKUP(F15,[1]!Expenses1[Category],[1]!Expenses1[Total],0,1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I15" s="28" t="e">
-        <f>G15-H15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K15" s="3" t="s">
+      <c r="H15" s="11">
+        <f ca="1">-_xlfn.XLOOKUP(F15,[1]!Expenses1[Category],[1]!Expenses1[Total],0,1)</f>
+        <v>2000</v>
+      </c>
+      <c r="I15" s="40">
+        <f ca="1">G15-H15</f>
+        <v>-260</v>
+      </c>
+      <c r="K15" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="5">
         <f ca="1">DATE(2025,$A$2, 10)</f>
         <v>45667</v>
       </c>
-      <c r="M15" s="30">
+      <c r="M15" s="13">
         <v>1500</v>
       </c>
-      <c r="N15" s="30"/>
-      <c r="P15" s="11" t="s">
+      <c r="N15" s="47"/>
+      <c r="P15" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15" s="6">
         <f ca="1">DATE(2025,$A$2, RANDBETWEEN(1, 28))</f>
-        <v>45665</v>
-      </c>
-      <c r="R15" s="32">
+        <v>45684</v>
+      </c>
+      <c r="R15" s="15">
         <v>33</v>
       </c>
-      <c r="S15" s="32"/>
-      <c r="U15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="V15" s="34">
+      <c r="S15" s="53"/>
+      <c r="U15" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="V15" s="17">
         <v>350</v>
       </c>
-      <c r="W15" s="34"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60">
+        <f>Savings_1[[#This Row],[Planned]]-Savings_1[[#This Row],[Actual]]</f>
+        <v>350</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="29">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="12">
         <v>300</v>
       </c>
-      <c r="C16" s="29" t="e">
-        <f>_xlfn.XLOOKUP(A16,[1]!Incomes1[Category],[1]!Incomes1[Total],"",0,1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D16" s="29" t="e">
-        <f t="shared" ref="D16:D20" si="1">C16-B16</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="14" t="s">
+      <c r="C16" s="12">
+        <f ca="1">_xlfn.XLOOKUP(A16,[1]!Incomes1[Category],[1]!Incomes1[Total],"",0,1)</f>
+        <v>105.5</v>
+      </c>
+      <c r="D16" s="37">
+        <f t="shared" ref="D16:D20" ca="1" si="1">C16-B16</f>
+        <v>-194.5</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="10">
         <v>200</v>
       </c>
-      <c r="H16" s="28" t="e">
-        <f>ABS(_xlfn.XLOOKUP(F16,[1]!Expenses1[Category],[1]!Expenses1[Total],0,1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I16" s="28" t="e">
-        <f t="shared" ref="I16:I23" si="2">G16-H16</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K16" s="3" t="s">
+      <c r="H16" s="11">
+        <f ca="1">-_xlfn.XLOOKUP(F16,[1]!Expenses1[Category],[1]!Expenses1[Total],0,1)</f>
+        <v>80</v>
+      </c>
+      <c r="I16" s="40">
+        <f t="shared" ref="I16:I23" ca="1" si="2">G16-H16</f>
+        <v>120</v>
+      </c>
+      <c r="K16" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="5">
         <f ca="1">DATE(2025,$A$2, 5)</f>
         <v>45662</v>
       </c>
-      <c r="M16" s="30">
+      <c r="M16" s="13">
         <v>45</v>
       </c>
-      <c r="N16" s="30"/>
-      <c r="P16" s="11" t="s">
+      <c r="N16" s="47"/>
+      <c r="P16" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16" s="6">
         <f ca="1">DATE(2025,$A$2, RANDBETWEEN(1, 28))</f>
-        <v>45660</v>
-      </c>
-      <c r="R16" s="32">
+        <v>45685</v>
+      </c>
+      <c r="R16" s="15">
         <v>12.99</v>
       </c>
-      <c r="S16" s="32"/>
-      <c r="U16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="V16" s="34">
+      <c r="S16" s="53"/>
+      <c r="U16" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="V16" s="17">
         <v>400</v>
       </c>
-      <c r="W16" s="34"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="60">
+        <f>Savings_1[[#This Row],[Planned]]-Savings_1[[#This Row],[Actual]]</f>
+        <v>400</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="29">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="12">
         <v>500</v>
       </c>
-      <c r="C17" s="29" t="e">
-        <f>_xlfn.XLOOKUP(A17,[1]!Incomes1[Category],[1]!Incomes1[Total],"",0,1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D17" s="29" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="14" t="s">
+      <c r="C17" s="12">
+        <f ca="1">_xlfn.XLOOKUP(A17,[1]!Incomes1[Category],[1]!Incomes1[Total],"",0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="37">
+        <f t="shared" ca="1" si="1"/>
+        <v>-500</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="10">
         <v>300</v>
       </c>
-      <c r="H17" s="28" t="e">
-        <f>ABS(_xlfn.XLOOKUP(F17,[1]!Expenses1[Category],[1]!Expenses1[Total],0,1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I17" s="28" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K17" s="3" t="s">
+      <c r="H17" s="11">
+        <f ca="1">-_xlfn.XLOOKUP(F17,[1]!Expenses1[Category],[1]!Expenses1[Total],0,1)</f>
+        <v>85</v>
+      </c>
+      <c r="I17" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="K17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="5">
         <f ca="1">DATE(2025,$A$2, 5)</f>
         <v>45662</v>
       </c>
-      <c r="M17" s="30">
+      <c r="M17" s="13">
         <v>30</v>
       </c>
-      <c r="N17" s="30"/>
-      <c r="P17" s="11" t="s">
+      <c r="N17" s="47"/>
+      <c r="P17" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="Q17" s="6">
+        <f ca="1">DATE(2025,$A$2, RANDBETWEEN(1, 28))</f>
+        <v>45667</v>
+      </c>
+      <c r="R17" s="15">
+        <v>42.69</v>
+      </c>
+      <c r="S17" s="53"/>
+      <c r="U17" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="V17" s="17">
+        <v>500</v>
+      </c>
+      <c r="W17" s="60">
+        <v>500</v>
+      </c>
+      <c r="X17" s="60">
+        <f>Savings_1[[#This Row],[Planned]]-Savings_1[[#This Row],[Actual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="12">
+        <v>100</v>
+      </c>
+      <c r="C18" s="12">
+        <f ca="1">_xlfn.XLOOKUP(A18,[1]!Incomes1[Category],[1]!Incomes1[Total],"",0,1)</f>
+        <v>800</v>
+      </c>
+      <c r="D18" s="37">
+        <f t="shared" ca="1" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="11">
+        <v>750</v>
+      </c>
+      <c r="H18" s="11">
+        <f ca="1">-_xlfn.XLOOKUP(F18,[1]!Expenses1[Category],[1]!Expenses1[Total],0,1)</f>
+        <v>1715</v>
+      </c>
+      <c r="I18" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>-965</v>
+      </c>
+      <c r="K18" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="5">
+        <f ca="1">DATE(2025,$A$2, 10)</f>
+        <v>45667</v>
+      </c>
+      <c r="M18" s="13">
+        <v>35</v>
+      </c>
+      <c r="N18" s="47"/>
+      <c r="P18" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="6">
         <f ca="1">DATE(2025,$A$2, RANDBETWEEN(1, 28))</f>
         <v>45679</v>
       </c>
-      <c r="R17" s="32">
-        <v>42.69</v>
-      </c>
-      <c r="S17" s="32"/>
-      <c r="U17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="V17" s="34">
-        <v>500</v>
-      </c>
-      <c r="W17" s="34">
-        <v>500</v>
+      <c r="R18" s="15">
+        <v>4.99</v>
+      </c>
+      <c r="S18" s="53"/>
+      <c r="U18" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="V18" s="17">
+        <v>150</v>
+      </c>
+      <c r="W18" s="60"/>
+      <c r="X18" s="61">
+        <f>Savings_1[[#This Row],[Planned]]-Savings_1[[#This Row],[Actual]]</f>
+        <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="29">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1500</v>
+      </c>
+      <c r="C19" s="12">
+        <f ca="1">_xlfn.XLOOKUP(A19,[1]!Incomes1[Category],[1]!Incomes1[Total],"",0,1)</f>
+        <v>4500</v>
+      </c>
+      <c r="D19" s="37">
+        <f t="shared" ca="1" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="11">
+        <v>130</v>
+      </c>
+      <c r="H19" s="11">
+        <f ca="1">-_xlfn.XLOOKUP(F19,[1]!Expenses1[Category],[1]!Expenses1[Total],0,1)</f>
         <v>100</v>
       </c>
-      <c r="C18" s="29" t="e">
-        <f>_xlfn.XLOOKUP(A18,[1]!Incomes1[Category],[1]!Incomes1[Total],"",0,1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D18" s="29" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="28">
-        <v>750</v>
-      </c>
-      <c r="H18" s="28" t="e">
-        <f>ABS(_xlfn.XLOOKUP(F18,[1]!Expenses1[Category],[1]!Expenses1[Total],0,1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I18" s="28" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="19">
+      <c r="I19" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="K19" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="5">
         <f ca="1">DATE(2025,$A$2, 10)</f>
         <v>45667</v>
       </c>
-      <c r="M18" s="30">
-        <v>35</v>
-      </c>
-      <c r="N18" s="30"/>
-      <c r="P18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="20">
-        <f ca="1">DATE(2025,$A$2, RANDBETWEEN(1, 28))</f>
-        <v>45666</v>
-      </c>
-      <c r="R18" s="32">
-        <v>4.99</v>
-      </c>
-      <c r="S18" s="32"/>
-      <c r="U18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="V18" s="34">
+      <c r="M19" s="13">
+        <v>25</v>
+      </c>
+      <c r="N19" s="47"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="53"/>
+      <c r="U19" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="V19" s="17">
+        <v>500</v>
+      </c>
+      <c r="W19" s="60">
+        <v>500</v>
+      </c>
+      <c r="X19" s="61">
+        <f>Savings_1[[#This Row],[Planned]]-Savings_1[[#This Row],[Actual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="12">
+        <v>800</v>
+      </c>
+      <c r="C20" s="12">
+        <f ca="1">_xlfn.XLOOKUP(A20,[1]!Incomes1[Category],[1]!Incomes1[Total],"",0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="37">
+        <f t="shared" ca="1" si="1"/>
+        <v>-800</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="11">
+        <v>130</v>
+      </c>
+      <c r="H20" s="11">
+        <f ca="1">-_xlfn.XLOOKUP(F20,[1]!Expenses1[Category],[1]!Expenses1[Total],0,1)</f>
         <v>150</v>
       </c>
-      <c r="W18" s="34"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="29">
-        <v>1500</v>
-      </c>
-      <c r="C19" s="29" t="e">
-        <f>_xlfn.XLOOKUP(A19,[1]!Incomes1[Category],[1]!Incomes1[Total],"",0,1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D19" s="29" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="28">
-        <v>130</v>
-      </c>
-      <c r="H19" s="28" t="e">
-        <f>ABS(_xlfn.XLOOKUP(F19,[1]!Expenses1[Category],[1]!Expenses1[Total],0,1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I19" s="28" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="19">
+      <c r="I20" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="5">
         <f ca="1">DATE(2025,$A$2, 10)</f>
         <v>45667</v>
       </c>
-      <c r="M19" s="30">
-        <v>25</v>
-      </c>
-      <c r="N19" s="30"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="U19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="V19" s="34">
+      <c r="M20" s="13">
+        <v>70</v>
+      </c>
+      <c r="N20" s="47"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="53"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="60"/>
+      <c r="X20" s="61">
+        <f>Savings_1[[#This Row],[Planned]]-Savings_1[[#This Row],[Actual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="36"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="11">
+        <v>200</v>
+      </c>
+      <c r="H21" s="11">
+        <f ca="1">-_xlfn.XLOOKUP(F21,[1]!Expenses1[Category],[1]!Expenses1[Total],0,1)</f>
         <v>500</v>
       </c>
-      <c r="W19" s="34">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="29">
-        <v>800</v>
-      </c>
-      <c r="C20" s="29" t="e">
-        <f>_xlfn.XLOOKUP(A20,[1]!Incomes1[Category],[1]!Incomes1[Total],"",0,1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D20" s="29" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="28">
-        <v>130</v>
-      </c>
-      <c r="H20" s="28" t="e">
-        <f>ABS(_xlfn.XLOOKUP(F20,[1]!Expenses1[Category],[1]!Expenses1[Total],0,1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I20" s="28" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="19">
+      <c r="I21" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>-300</v>
+      </c>
+      <c r="K21" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="5">
         <f ca="1">DATE(2025,$A$2, 10)</f>
         <v>45667</v>
       </c>
-      <c r="M20" s="30">
+      <c r="M21" s="13">
+        <v>35</v>
+      </c>
+      <c r="N21" s="47"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="53"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="61">
+        <f>Savings_1[[#This Row],[Planned]]-Savings_1[[#This Row],[Actual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="10">
+        <v>200</v>
+      </c>
+      <c r="H22" s="11">
+        <f ca="1">-_xlfn.XLOOKUP(F22,[1]!Expenses1[Category],[1]!Expenses1[Total],0,1)</f>
+        <v>100</v>
+      </c>
+      <c r="I22" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K22" s="45"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="47"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="53"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="61">
+        <f>Savings_1[[#This Row],[Planned]]-Savings_1[[#This Row],[Actual]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="36"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="10">
+        <v>150</v>
+      </c>
+      <c r="H23" s="11">
+        <f ca="1">-_xlfn.XLOOKUP(F23,[1]!Expenses1[Category],[1]!Expenses1[Total],0,1)</f>
+        <v>80</v>
+      </c>
+      <c r="I23" s="40">
+        <f t="shared" ca="1" si="2"/>
         <v>70</v>
       </c>
-      <c r="N20" s="30"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="47"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="53"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="61">
+        <f>Savings_1[[#This Row],[Planned]]-Savings_1[[#This Row],[Actual]]</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="28">
-        <v>200</v>
-      </c>
-      <c r="H21" s="28" t="e">
-        <f>ABS(_xlfn.XLOOKUP(F21,[1]!Expenses1[Category],[1]!Expenses1[Total],0,1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I21" s="28" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="19">
-        <f ca="1">DATE(2025,$A$2, 10)</f>
-        <v>45667</v>
-      </c>
-      <c r="M21" s="30">
-        <v>35</v>
-      </c>
-      <c r="N21" s="30"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="38"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="44"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="48"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="54"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="61"/>
+      <c r="X24" s="61">
+        <f>Savings_1[[#This Row],[Planned]]-Savings_1[[#This Row],[Actual]]</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="14" t="s">
+    <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="27">
-        <v>200</v>
-      </c>
-      <c r="H22" s="28" t="e">
-        <f>ABS(_xlfn.XLOOKUP(F22,[1]!Expenses1[Category],[1]!Expenses1[Total],0,1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I22" s="28" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="27">
-        <v>150</v>
-      </c>
-      <c r="H23" s="28" t="e">
-        <f>ABS(_xlfn.XLOOKUP(F23,[1]!Expenses1[Category],[1]!Expenses1[Total],0,1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I23" s="28" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-    </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="49">
-        <f>SUM(B15:B24)</f>
+      <c r="B25" s="20">
+        <f>SUBTOTAL(109,Income_1[Planned])</f>
         <v>5700</v>
       </c>
-      <c r="C25" s="49" t="e">
-        <f>SUM(C15:C24)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D25" s="49" t="e">
-        <f>SUM(D15:D24)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="52">
-        <f>SUM(G15:G24)</f>
+      <c r="C25" s="20">
+        <f ca="1">SUBTOTAL(109,Income_1[Actual])</f>
+        <v>5655.5</v>
+      </c>
+      <c r="D25" s="20">
+        <f ca="1">SUBTOTAL(109,Income_1[Left])</f>
+        <v>-44.5</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="23">
+        <f>SUBTOTAL(109,Expences_1[Planned])</f>
         <v>3800</v>
       </c>
-      <c r="H25" s="52" t="e">
-        <f>SUM(H15:H24)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I25" s="52" t="e">
-        <f>SUM(I15:I24)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K25" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" s="53"/>
-      <c r="M25" s="54">
-        <f>SUM(M15:M24)</f>
+      <c r="H25" s="23">
+        <f ca="1">SUBTOTAL(109,Expences_1[Actual])</f>
+        <v>4810</v>
+      </c>
+      <c r="I25" s="23">
+        <f ca="1">SUBTOTAL(109,Expences_1[Left])</f>
+        <v>-1010</v>
+      </c>
+      <c r="K25" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="49"/>
+      <c r="M25" s="77">
+        <f>SUBTOTAL(109,Bills_1[Planned])</f>
         <v>1740</v>
       </c>
-      <c r="N25" s="54">
-        <f>SUM(N15:N24)</f>
+      <c r="N25" s="50">
+        <f>SUBTOTAL(109,Bills_1[Actual])</f>
         <v>0</v>
       </c>
       <c r="P25" s="55" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="Q25" s="56"/>
       <c r="R25" s="57">
-        <f>SUM(R15:R24)</f>
+        <f>SUBTOTAL(109,Subscriptions_1[Planned])</f>
         <v>93.67</v>
       </c>
       <c r="S25" s="57">
-        <f>SUM(S15:S24)</f>
+        <f>SUBTOTAL(109,Subscriptions_1[Actual])</f>
         <v>0</v>
       </c>
-      <c r="U25" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="V25" s="59">
-        <f>SUM(V15:V24)</f>
+      <c r="U25" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="V25" s="63">
+        <f>SUBTOTAL(109,Savings_1[Planned])</f>
         <v>1900</v>
       </c>
-      <c r="W25" s="59">
-        <f>SUM(W15:W24)</f>
+      <c r="W25" s="63">
+        <f>SUBTOTAL(109,Savings_1[Actual])</f>
         <v>1000</v>
       </c>
+      <c r="X25" s="63">
+        <f>SUBTOTAL(109,Savings_1[Left])</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:A20">
     <sortCondition ref="A15:A20"/>
   </sortState>
   <mergeCells count="7">
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="U13:X13"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="F13:I13"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:D9">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:L24">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>TODAY()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15:Q24">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>TODAY()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="34" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="5">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+  </tableParts>
 </worksheet>
 </file>